--- a/工作区域/PDF学习笔记/MLAPP学习笔记.xlsx
+++ b/工作区域/PDF学习笔记/MLAPP学习笔记.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3FEA52F-45F0-4E9F-9DC8-143F8A68DE0A}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BC370173-80EF-422C-9764-118FEA6B4958}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -11,12 +11,37 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+  <si>
+    <t>sepal</t>
+  </si>
+  <si>
+    <t>petal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>versicolor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>setosa</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>virginica</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -339,10 +364,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -352,6 +377,31 @@
         <v>1</v>
       </c>
     </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
